--- a/敏捷小区_数据仓库数据质量检查/Data_Warehouse_Check_Module/Base_Data.xlsx
+++ b/敏捷小区_数据仓库数据质量检查/Data_Warehouse_Check_Module/Base_Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\敏捷小区_数据仓库数据质量检查\Data_Warehouse_Check_Module\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84278CB5-4E5C-49DB-B967-A9DF52E28CCC}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60E63246-40BB-442A-8037-DC07217977E2}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" tabRatio="876" activeTab="1" xr2:uid="{B3AB9F8F-923D-439A-BC45-28F3DFAE08E8}"/>
   </bookViews>
@@ -4617,8 +4617,8 @@
   </sheetPr>
   <dimension ref="A1:L75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E51" sqref="E51"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -6478,7 +6478,7 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B53" s="5" t="s">
         <v>580</v>
